--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6350"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Required Software and Setup" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Serial No.</t>
   </si>
@@ -126,6 +126,56 @@
   </si>
   <si>
     <t>Simply download the .msi and follow the wizard.Accept the defaults.</t>
+  </si>
+  <si>
+    <t>JDK 17</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/javase/jdk17-archive-downloads.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykAhL1IoQUM</t>
+  </si>
+  <si>
+    <t>How to Install Java JDK 17 on Windows 11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cL4GcZ6GJV8</t>
+  </si>
+  <si>
+    <t>How to Install Java JDK 17 on Windows 10</t>
+  </si>
+  <si>
+    <r>
+      <t>Make sure Java directory is specified in the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF121926"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF121926"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JAVA_HOME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF121926"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> environment variable and the bin folder is added to the PATH environment variable.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -138,7 +188,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +234,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -325,6 +391,18 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF121926"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF121926"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -648,134 +726,134 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -802,22 +880,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1138,12 +1228,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1319,6 +1409,38 @@
         <v>32</v>
       </c>
     </row>
+    <row r="22" ht="18.5" spans="1:5">
+      <c r="A22" s="7">
+        <v>6</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" spans="2:5">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" ht="61" spans="5:5">
+      <c r="E24" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="http://git-scm.com/download/win"/>
@@ -1332,6 +1454,9 @@
     <hyperlink ref="E16" r:id="rId9" display="https://linenmaster.my.site.com/s/article/Install-Visual-Studio-2019-x64-Redistributable"/>
     <hyperlink ref="E18" r:id="rId10" display="https://aka.ms/vs/17/release/vc_redist.x64.exe"/>
     <hyperlink ref="C20" r:id="rId11" display="https://dev.mysql.com/downloads/workbench/"/>
+    <hyperlink ref="C22" r:id="rId12" display="https://www.oracle.com/java/technologies/javase/jdk17-archive-downloads.html"/>
+    <hyperlink ref="D22" r:id="rId13" display="https://www.youtube.com/watch?v=ykAhL1IoQUM"/>
+    <hyperlink ref="D23" r:id="rId14" display="https://www.youtube.com/watch?v=cL4GcZ6GJV8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Serial No.</t>
   </si>
@@ -147,6 +147,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Make sure Java directory is specified in the</t>
     </r>
     <r>
@@ -177,6 +184,24 @@
       <t> environment variable and the bin folder is added to the PATH environment variable.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Postman </t>
+  </si>
+  <si>
+    <t>https://www.postman.com/downloads/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Fk6ef_mj9w</t>
+  </si>
+  <si>
+    <t>How to install Postman on Windows 10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hmn5XeZv-GE</t>
+  </si>
+  <si>
+    <t>How to Install Postman on Windows 11</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +213,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,24 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -726,134 +736,134 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -897,17 +907,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,12 +1239,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1413,32 +1424,57 @@
       <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18.5" spans="2:5">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" ht="61" spans="5:5">
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" spans="1:5">
+      <c r="A26" s="7">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1457,6 +1493,9 @@
     <hyperlink ref="C22" r:id="rId12" display="https://www.oracle.com/java/technologies/javase/jdk17-archive-downloads.html"/>
     <hyperlink ref="D22" r:id="rId13" display="https://www.youtube.com/watch?v=ykAhL1IoQUM"/>
     <hyperlink ref="D23" r:id="rId14" display="https://www.youtube.com/watch?v=cL4GcZ6GJV8"/>
+    <hyperlink ref="C26" r:id="rId15" display="https://www.postman.com/downloads/"/>
+    <hyperlink ref="D26" r:id="rId16" display="https://www.youtube.com/watch?v=5Fk6ef_mj9w"/>
+    <hyperlink ref="D27" r:id="rId17" display="https://www.youtube.com/watch?v=Hmn5XeZv-GE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
